--- a/service/ExcelS/Template.xlsx
+++ b/service/ExcelS/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\telegram_bots\accounts\service\ExcelS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3243A1-17D3-446B-89BA-C647BD8E023A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8643A4B4-0123-4022-A7DF-E3CB41B2502D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Shop</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Описание проекта</t>
   </si>
@@ -52,6 +37,9 @@
   </si>
   <si>
     <t>Название</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
   </si>
 </sst>
 </file>
@@ -595,51 +583,37 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="11.5546875" style="2"/>
-    <col min="3" max="3" width="51.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="56.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="56.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
